--- a/data/trans_camb/IP1001-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP1001-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 6,9</t>
+          <t>-3,12; 7,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 2,71</t>
+          <t>-5,48; 3,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 6,73</t>
+          <t>-3,95; 6,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 4,2</t>
+          <t>-5,01; 4,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 10,22</t>
+          <t>-2,92; 11,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 1,94</t>
+          <t>-6,75; 1,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 3,71</t>
+          <t>-2,82; 4,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 4,43</t>
+          <t>-2,83; 4,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 3,03</t>
+          <t>-4,14; 2,45</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-79,24; 574,13</t>
+          <t>-82,72; 810,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1017,37 +1017,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 573,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-84,41; 232,47</t>
+          <t>-82,69; 256,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,86; 509,77</t>
+          <t>-53,51; 546,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 361,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-63,21; 184,08</t>
+          <t>-59,27; 164,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-56,97; 224,53</t>
+          <t>-58,46; 195,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-83,44; 164,18</t>
+          <t>-84,12; 116,3</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,58</t>
+          <t>-1,6; 1,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 2,1</t>
+          <t>-1,2; 2,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 3,39</t>
+          <t>-0,53; 3,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 1,17</t>
+          <t>-2,29; 1,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 1,23</t>
+          <t>-2,0; 1,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,2</t>
+          <t>-2,16; 1,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,83</t>
+          <t>-1,38; 0,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,11</t>
+          <t>-1,21; 1,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,94</t>
+          <t>-0,66; 1,85</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,84; 112,32</t>
+          <t>-54,27; 90,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-41,83; 143,89</t>
+          <t>-41,04; 130,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 211,91</t>
+          <t>-18,48; 199,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-62,67; 74,51</t>
+          <t>-65,28; 62,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,8; 72,39</t>
+          <t>-59,72; 70,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,43; 70,33</t>
+          <t>-61,37; 83,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-44,59; 45,4</t>
+          <t>-46,73; 41,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,49; 58,3</t>
+          <t>-40,02; 55,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 104,85</t>
+          <t>-23,49; 98,12</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 2,39</t>
+          <t>-3,94; 2,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 1,83</t>
+          <t>-4,31; 1,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 2,93</t>
+          <t>-4,08; 3,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,36; -1,11</t>
+          <t>-6,14; -1,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 0,06</t>
+          <t>-5,13; -0,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 1,87</t>
+          <t>-3,76; 1,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 0,28</t>
+          <t>-3,79; 0,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,3</t>
+          <t>-3,62; 0,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 1,91</t>
+          <t>-3,09; 1,66</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-70,96; 152,97</t>
+          <t>-74,2; 146,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-79,64; 129,57</t>
+          <t>-79,61; 116,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-84,49; 164,13</t>
+          <t>-83,43; 233,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -29,85</t>
+          <t>-100,0; -29,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 39,45</t>
+          <t>-100,0; 26,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-85,0; 134,82</t>
+          <t>-80,19; 126,32</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-80,76; 31,34</t>
+          <t>-79,67; 31,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-76,96; 25,89</t>
+          <t>-75,99; 22,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-68,64; 112,4</t>
+          <t>-69,43; 81,41</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,28</t>
+          <t>-1,27; 1,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 1,14</t>
+          <t>-1,35; 1,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,55</t>
+          <t>-0,74; 2,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,21</t>
+          <t>-2,37; 0,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,68</t>
+          <t>-2,19; 0,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,7</t>
+          <t>-2,23; 0,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,41</t>
+          <t>-1,58; 0,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,56</t>
+          <t>-1,42; 0,52</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 1,17</t>
+          <t>-1,01; 1,13</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-43,22; 68,84</t>
+          <t>-38,59; 65,75</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-42,44; 57,58</t>
+          <t>-41,82; 61,49</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,51; 127,97</t>
+          <t>-25,18; 105,35</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-64,62; 14,22</t>
+          <t>-63,6; 18,52</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-59,47; 30,51</t>
+          <t>-57,77; 36,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-63,38; 29,28</t>
+          <t>-61,08; 23,42</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-43,12; 19,75</t>
+          <t>-46,99; 17,73</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-42,59; 22,54</t>
+          <t>-40,92; 23,15</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-31,83; 48,27</t>
+          <t>-31,56; 45,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1001-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP1001-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,13</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,86; 4,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,96; 10,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,31; 1,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,43; 7,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,91; 2,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,92; 6,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,91; 4,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,93; 4,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,13; 2,88</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,08%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-77,41; 270,0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-54,53; 517,93</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-96,09; 636,81</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,88; 174,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,83; 200,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,75; 159,79</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>0,46</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 7,66</t>
+          <t>-2,34; 1,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 3,03</t>
+          <t>-2,25; 1,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 6,64</t>
+          <t>-2,29; 1,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 4,3</t>
+          <t>-1,56; 1,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 11,12</t>
+          <t>-1,37; 1,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 1,53</t>
+          <t>-0,5; 3,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 4,12</t>
+          <t>-1,42; 0,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 4,53</t>
+          <t>-1,36; 1,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 2,45</t>
+          <t>-0,79; 1,81</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>37,33%</t>
+          <t>-20,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-40,81%</t>
+          <t>-20,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>-18,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,63%</t>
+          <t>-1,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>60,87%</t>
+          <t>17,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-66,8%</t>
+          <t>56,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>-10,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>-2,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-28,14%</t>
+          <t>18,54%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-82,72; 810,26</t>
+          <t>-62,37; 84,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,06; 92,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,39; 80,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-82,69; 256,49</t>
+          <t>-52,34; 100,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,51; 546,57</t>
+          <t>-43,07; 113,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 361,29</t>
+          <t>-21,99; 183,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-59,27; 164,45</t>
+          <t>-45,61; 47,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-58,46; 195,42</t>
+          <t>-42,63; 60,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-84,12; 116,3</t>
+          <t>-24,88; 95,8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-0,44</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,34</t>
+          <t>-5,81; -0,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 2,0</t>
+          <t>-5,35; -0,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 3,23</t>
+          <t>-4,04; 1,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,14</t>
+          <t>-3,81; 2,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 1,12</t>
+          <t>-4,17; 2,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,45</t>
+          <t>-3,42; 7,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 0,78</t>
+          <t>-3,67; 0,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,04</t>
+          <t>-3,63; 0,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,85</t>
+          <t>-2,69; 3,04</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,0%</t>
+          <t>-91,75%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>-68,99%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>58,05%</t>
+          <t>-28,79%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-20,15%</t>
+          <t>-14,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-20,43%</t>
+          <t>-27,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-15,47%</t>
+          <t>-2,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-10,65%</t>
+          <t>-50,69%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-2,05%</t>
+          <t>-46,59%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>-13,05%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-54,27; 90,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-41,04; 130,6</t>
+          <t>-100,0; 24,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,48; 199,11</t>
+          <t>-84,01; 135,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-65,28; 62,8</t>
+          <t>-72,62; 159,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,72; 70,58</t>
+          <t>-79,01; 132,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-61,37; 83,33</t>
+          <t>-81,43; 500,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-46,73; 41,81</t>
+          <t>-81,37; 21,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,02; 55,83</t>
+          <t>-78,3; 14,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,49; 98,12</t>
+          <t>-66,13; 158,13</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 2,58</t>
+          <t>-2,49; 0,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 1,94</t>
+          <t>-2,14; 0,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 3,16</t>
+          <t>-2,37; 0,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,14; -1,24</t>
+          <t>-1,42; 1,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,13; -0,03</t>
+          <t>-1,42; 1,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 1,94</t>
+          <t>-0,64; 2,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 0,25</t>
+          <t>-1,51; 0,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 0,36</t>
+          <t>-1,4; 0,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 1,66</t>
+          <t>-1,0; 1,3</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-14,46%</t>
+          <t>-36,91%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-27,93%</t>
+          <t>-25,79%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-25,57%</t>
+          <t>-29,59%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-91,75%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-68,99%</t>
+          <t>-3,19%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-28,79%</t>
+          <t>33,5%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-50,69%</t>
+          <t>-18,96%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-46,59%</t>
+          <t>-14,86%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-26,65%</t>
+          <t>1,96%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-74,2; 146,42</t>
+          <t>-66,07; 12,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-79,61; 116,49</t>
+          <t>-58,05; 29,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-83,43; 233,89</t>
+          <t>-62,27; 32,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -29,18</t>
+          <t>-44,74; 59,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 26,4</t>
+          <t>-42,54; 59,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-80,19; 126,32</t>
+          <t>-22,77; 134,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-79,67; 31,21</t>
+          <t>-44,97; 16,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-75,99; 22,18</t>
+          <t>-43,21; 25,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-69,43; 81,41</t>
+          <t>-29,82; 56,74</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-1,11</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,78</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>-0,54</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-1,27; 1,38</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-1,35; 1,23</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 2,34</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 0,35</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-2,19; 0,76</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-2,23; 0,53</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-1,58; 0,42</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-1,42; 0,52</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-1,01; 1,13</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>0,21%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-3,09%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>27,54%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-36,91%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-25,79%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-27,65%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>-18,95%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-14,81%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-0,43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-38,59; 65,75</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-41,82; 61,49</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-25,18; 105,35</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-63,6; 18,52</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-57,77; 36,12</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-61,08; 23,42</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-46,99; 17,73</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-40,92; 23,15</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-31,56; 45,82</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
